--- a/ParserCodes/lr0_analysis.xlsx
+++ b/ParserCodes/lr0_analysis.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="States" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ACTION Table" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GOTO Table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Transitions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="States" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACTION Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOTO Table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitions" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,11 +616,11 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>r7</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -641,11 +641,11 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>r7</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>s7</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
     </row>
@@ -745,12 +745,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
     </row>
@@ -854,6 +854,21 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
@@ -921,7 +936,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
         </is>
       </c>
     </row>
@@ -933,29 +948,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>[stmt → call_stmt ·]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+          <t>[program → stmt_list ·]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="120" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>State 3</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>[program → stmt_list ·]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="120" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>State 4</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";"]
 [for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]
@@ -968,6 +971,18 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>State 4</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>[stmt → call_stmt ·]</t>
+        </is>
+      </c>
+    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
@@ -976,7 +991,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>[stmt → for_stmt ·]</t>
+          <t>[programBar → program ·]</t>
         </is>
       </c>
     </row>
@@ -988,7 +1003,7 @@
       </c>
       <c r="B8" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
+          <t>[stmt → for_stmt ·]</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1015,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>[programBar → program ·]</t>
+          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1027,7 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" · args? ")" ";"]</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1051,7 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" · args? ")" ";"]</t>
+          <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1063,7 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" args? · ")" ";"]</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1075,7 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" args? · ")" ";"]</t>
+          <t>[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1087,7 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" args? ")" · ";"]</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1099,7 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" args? ")" · ";"]</t>
+          <t>[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1111,7 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" args? ")" ";" ·]</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1123,7 @@
       </c>
       <c r="B18" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" args? ")" ";" ·]</t>
+          <t>[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,7 +1184,6 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1243,11 +1257,6 @@
           <t>args?</t>
         </is>
       </c>
-      <c r="O1" s="12" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
@@ -1275,29 +1284,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
           <t>-</t>
@@ -1314,11 +1323,6 @@
         </is>
       </c>
       <c r="N2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1328,9 +1332,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s8</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -1368,9 +1372,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>s8</t>
+      <c r="J3" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" s="13" t="inlineStr">
@@ -1389,11 +1393,6 @@
         </is>
       </c>
       <c r="N3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1405,72 +1404,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>r6</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
     </row>
@@ -1480,72 +1474,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>r4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>r4</t>
+          <t>r8</t>
+        </is>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>r8 / s7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>r4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>r4</t>
+          <t>r8</t>
+        </is>
+      </c>
+      <c r="J5" s="14" t="inlineStr">
+        <is>
+          <t>r8 / s1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>r4</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
     </row>
@@ -1573,9 +1562,9 @@
           <t>r7</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
-        <is>
-          <t>r7 / s1</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1593,9 +1582,9 @@
           <t>r7</t>
         </is>
       </c>
-      <c r="J6" s="14" t="inlineStr">
-        <is>
-          <t>r7 / s6</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1614,11 +1603,6 @@
         </is>
       </c>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>r7</t>
         </is>
@@ -1628,74 +1612,69 @@
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>r5</t>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>r5</t>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="I7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1705,72 +1684,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s10</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>r6</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
     </row>
@@ -1808,9 +1782,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>accept</t>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -1818,9 +1792,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s10</t>
         </is>
       </c>
       <c r="K9" s="13" t="inlineStr">
@@ -1839,11 +1813,6 @@
         </is>
       </c>
       <c r="N9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1868,59 +1837,54 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>s11</t>
-        </is>
-      </c>
-      <c r="F10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1930,72 +1894,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>r8</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
     </row>
@@ -2018,9 +1977,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s12</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
@@ -2063,12 +2022,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>s12</t>
-        </is>
-      </c>
-      <c r="O12" s="13" t="inlineStr">
+      <c r="N12" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2083,9 +2037,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s13</t>
         </is>
       </c>
       <c r="D13" s="13" t="inlineStr">
@@ -2123,9 +2077,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>s13</t>
+      <c r="K13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L13" s="13" t="inlineStr">
@@ -2139,11 +2093,6 @@
         </is>
       </c>
       <c r="N13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2158,51 +2107,51 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>s14</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="L14" s="13" t="inlineStr">
         <is>
           <t>-</t>
@@ -2214,11 +2163,6 @@
         </is>
       </c>
       <c r="N14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2238,9 +2182,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s15</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -2253,9 +2197,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s15</t>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" s="13" t="inlineStr">
@@ -2289,11 +2233,6 @@
         </is>
       </c>
       <c r="N15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2313,26 +2252,26 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>s16</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H16" s="13" t="inlineStr">
         <is>
           <t>-</t>
@@ -2364,11 +2303,6 @@
         </is>
       </c>
       <c r="N16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2378,74 +2312,69 @@
       <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>r3</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>s17</t>
-        </is>
-      </c>
-      <c r="L17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>r3</t>
         </is>
       </c>
     </row>
@@ -2453,74 +2382,69 @@
       <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>r2</t>
+      <c r="B18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>r2</t>
+          <t>s17</t>
+        </is>
+      </c>
+      <c r="L18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2593,11 +2517,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O19" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
@@ -2605,72 +2524,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>r3</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
     </row>
@@ -2766,24 +2680,24 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2890,15 +2804,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
@@ -2910,15 +2820,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2935,11 +2841,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F6" s="13" t="inlineStr">
         <is>
@@ -2951,11 +2861,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
+      <c r="H6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3639,7 +3553,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3652,7 +3566,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3665,7 +3579,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3678,7 +3592,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3691,7 +3605,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3704,7 +3618,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3717,7 +3631,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3726,7 +3640,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"("</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3735,7 +3649,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3743,12 +3657,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3756,25 +3670,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>call_stmt</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>4</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>call_stmt</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3782,12 +3696,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3795,12 +3709,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3813,11 +3727,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"("</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3830,7 +3744,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"="</t>
+          <t>args?</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3843,7 +3757,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>args?</t>
+          <t>"="</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3856,7 +3770,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>")"</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3869,7 +3783,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>")"</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3882,7 +3796,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"to"</t>
+          <t>";"</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3895,7 +3809,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>";"</t>
+          <t>"to"</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3904,7 +3818,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>

--- a/ParserCodes/lr0_analysis.xlsx
+++ b/ParserCodes/lr0_analysis.xlsx
@@ -979,7 +979,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>[stmt → call_stmt ·]</t>
+          <t>[programBar → program ·]</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>[programBar → program ·]</t>
+          <t>[stmt → call_stmt ·]</t>
         </is>
       </c>
     </row>
@@ -1542,69 +1542,69 @@
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>r7</t>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>r7</t>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="I6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1612,69 +1612,69 @@
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>accept</t>
-        </is>
-      </c>
-      <c r="I7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>r7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
     </row>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="13" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
